--- a/ドキュメント/内部設計/ファイル構成一覧表_E2_くまおに.xlsx
+++ b/ドキュメント/内部設計/ファイル構成一覧表_E2_くまおに.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\ドキュメント\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B1B416-1B78-4382-BD69-5ECF716A450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4F0E9-4F10-4E8B-B9DE-72CB108EF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
     <sheet name="ガチャ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル構成!$B$2:$H$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ガチャ!$I$3:$N$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ファイル構成!$B$2:$H$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="277">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -153,37 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TOP画面用</t>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOP画面用jsp</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOP画面用css</t>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOP画面用js</t>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤怠入力</t>
     <rPh sb="0" eb="2">
       <t>キンタイ</t>
@@ -224,13 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理用</t>
-    <rPh sb="0" eb="3">
-      <t>カンリヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤怠入力画面用</t>
     <rPh sb="0" eb="4">
       <t>キンタイニュウリョク</t>
@@ -311,43 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理用画面用</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理用画面用jsp</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理用画面用css</t>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理用画面用js</t>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>用語画面用</t>
     <rPh sb="0" eb="2">
       <t>ヨウゴ</t>
@@ -622,22 +548,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>admin.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AdminServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>common.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1256,13 +1166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未定</t>
-    <rPh sb="0" eb="2">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ガチャ保持情報関連のデータ操作モデル</t>
     <rPh sb="3" eb="5">
       <t>ホジ</t>
@@ -1273,6 +1176,421 @@
     <t>ガチャ保持情報関連のデータアクセス用DAO</t>
     <rPh sb="3" eb="5">
       <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOP画面,管理者用画面用</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOP画面,管理者用画面用css</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOP画面,管理者用画面用js</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOP画面,管理者用画面用jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上さん</t>
+    <rPh sb="0" eb="2">
+      <t>ムラカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定永さん</t>
+    <rPh sb="0" eb="2">
+      <t>サダナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内田さん</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星野さん</t>
+    <rPh sb="0" eb="2">
+      <t>ホシノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日高さん</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日高さん、渡辺さん</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./img/mk01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./img/mk02.png</t>
+  </si>
+  <si>
+    <t>./img/mk03.png</t>
+  </si>
+  <si>
+    <t>./img/mk04.png</t>
+  </si>
+  <si>
+    <t>./img/mk05.png</t>
+  </si>
+  <si>
+    <t>./img/mk06.png</t>
+  </si>
+  <si>
+    <t>./img/mk07.png</t>
+  </si>
+  <si>
+    <t>./img/mk08.png</t>
+  </si>
+  <si>
+    <t>./img/mk09.png</t>
+  </si>
+  <si>
+    <t>./img/mk10.png</t>
+  </si>
+  <si>
+    <t>./img/mk11.png</t>
+  </si>
+  <si>
+    <t>./img/mk12.png</t>
+  </si>
+  <si>
+    <t>./img/mk13.png</t>
+  </si>
+  <si>
+    <t>./img/mk14.png</t>
+  </si>
+  <si>
+    <t>./img/mk15.png</t>
+  </si>
+  <si>
+    <t>./img/bg01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./img/bg02.png</t>
+  </si>
+  <si>
+    <t>./img/bg03.png</t>
+  </si>
+  <si>
+    <t>./img/bg04.png</t>
+  </si>
+  <si>
+    <t>./img/bg05.png</t>
+  </si>
+  <si>
+    <t>./img/bg06.png</t>
+  </si>
+  <si>
+    <t>./img/bg07.png</t>
+  </si>
+  <si>
+    <t>./img/bg08.png</t>
+  </si>
+  <si>
+    <t>./img/bg09.png</t>
+  </si>
+  <si>
+    <t>./img/bg10.png</t>
+  </si>
+  <si>
+    <t>./img/bg11.png</t>
+  </si>
+  <si>
+    <t>./img/bg12.png</t>
+  </si>
+  <si>
+    <t>./img/bg13.png</t>
+  </si>
+  <si>
+    <t>./img/bg14.png</t>
+  </si>
+  <si>
+    <t>./img/bg15.png</t>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>侍</t>
+    <rPh sb="0" eb="1">
+      <t>サムライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロッコリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <rPh sb="0" eb="1">
+      <t>カタナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兜</t>
+    <rPh sb="0" eb="1">
+      <t>カブト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初心者マーク</t>
+    <rPh sb="0" eb="3">
+      <t>ショシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高齢者マーク</t>
+    <rPh sb="0" eb="3">
+      <t>コウレイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小判</t>
+    <rPh sb="0" eb="2">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米俵</t>
+    <rPh sb="0" eb="2">
+      <t>コメダワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草鞋</t>
+    <rPh sb="0" eb="2">
+      <t>ワラジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家紋</t>
+    <rPh sb="0" eb="2">
+      <t>カモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼</t>
+    <rPh sb="0" eb="1">
+      <t>オニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎧</t>
+    <rPh sb="0" eb="1">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おにぎり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明太子</t>
+    <rPh sb="0" eb="3">
+      <t>メンタイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊</t>
+    <rPh sb="0" eb="1">
+      <t>クマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガーデン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金箔</t>
+    <rPh sb="0" eb="2">
+      <t>キンパク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畳柄</t>
+    <rPh sb="0" eb="2">
+      <t>タタミガラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人参</t>
+    <rPh sb="0" eb="2">
+      <t>ニンジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんぐり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にぼし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥</t>
+    <rPh sb="0" eb="1">
+      <t>トリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フライドポテト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飴</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笹かまぼこ</t>
+    <rPh sb="0" eb="1">
+      <t>ササ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波</t>
+    <rPh sb="0" eb="1">
+      <t>ナミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1281,7 +1599,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1610,22 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1312,7 +1646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1335,13 +1669,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,6 +1695,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H71"/>
+  <dimension ref="B2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1678,7 +2044,7 @@
     <col min="5" max="5" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="58.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1710,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -1719,13 +2085,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1734,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1743,13 +2109,13 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1758,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1770,10 +2136,10 @@
         <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1782,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1791,13 +2157,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1805,20 +2171,18 @@
         <f>ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>212</v>
@@ -1829,20 +2193,18 @@
         <f>ROW()-2</f>
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>212</v>
@@ -1853,20 +2215,18 @@
         <f>ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>212</v>
@@ -1877,20 +2237,18 @@
         <f>ROW()-2</f>
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>212</v>
@@ -1901,80 +2259,96 @@
         <f>ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f>ROW()-2</f>
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f>ROW()-2</f>
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f>ROW()-2</f>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
@@ -1982,7 +2356,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -1991,13 +2365,13 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2006,22 +2380,22 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2030,22 +2404,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2054,22 +2428,22 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2077,23 +2451,21 @@
         <f>ROW()-2</f>
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2103,18 +2475,20 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -2123,38 +2497,38 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f>ROW()-2</f>
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>211</v>
@@ -2166,22 +2540,22 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2189,40 +2563,48 @@
         <f>ROW()-2</f>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f>ROW()-2</f>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -2230,22 +2612,22 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2253,23 +2635,21 @@
         <f>ROW()-2</f>
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2277,23 +2657,21 @@
         <f>ROW()-2</f>
         <v>26</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2302,19 +2680,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>215</v>
@@ -2325,40 +2703,48 @@
         <f>ROW()-2</f>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f>ROW()-2</f>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -2366,22 +2752,22 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2390,22 +2776,22 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2414,22 +2800,22 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2437,20 +2823,24 @@
         <f>ROW()-2</f>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -2458,22 +2848,22 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2481,60 +2871,72 @@
         <f>ROW()-2</f>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f>ROW()-2</f>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f>ROW()-2</f>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
@@ -2542,22 +2944,22 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2565,23 +2967,21 @@
         <f>ROW()-2</f>
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2589,23 +2989,21 @@
         <f>ROW()-2</f>
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2614,22 +3012,22 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2638,22 +3036,22 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2662,22 +3060,22 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2686,22 +3084,22 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2710,22 +3108,22 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2733,40 +3131,48 @@
         <f>ROW()-2</f>
         <v>46</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D48" s="1" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
         <f>ROW()-2</f>
         <v>47</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
@@ -2783,13 +3189,13 @@
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2797,40 +3203,48 @@
         <f>ROW()-2</f>
         <v>49</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H51" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
         <f>ROW()-2</f>
         <v>50</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
@@ -2838,22 +3252,22 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2861,20 +3275,18 @@
         <f>ROW()-2</f>
         <v>52</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>210</v>
@@ -2885,20 +3297,18 @@
         <f>ROW()-2</f>
         <v>53</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>210</v>
@@ -2909,20 +3319,18 @@
         <f>ROW()-2</f>
         <v>54</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>210</v>
@@ -2933,23 +3341,21 @@
         <f>ROW()-2</f>
         <v>55</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2957,23 +3363,21 @@
         <f>ROW()-2</f>
         <v>56</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2981,23 +3385,21 @@
         <f>ROW()-2</f>
         <v>57</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3006,22 +3408,22 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3030,7 +3432,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -3039,13 +3441,13 @@
         <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3054,7 +3456,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>8</v>
@@ -3063,13 +3465,13 @@
         <v>15</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3078,7 +3480,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>12</v>
@@ -3087,13 +3489,13 @@
         <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3102,7 +3504,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>12</v>
@@ -3111,13 +3513,13 @@
         <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3126,7 +3528,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
@@ -3135,13 +3537,13 @@
         <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3150,22 +3552,22 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3174,124 +3576,28 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="1">
-        <f>ROW()-2</f>
-        <v>66</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="1">
-        <f>ROW()-2</f>
-        <v>67</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="1">
-        <f>ROW()-2</f>
-        <v>68</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="1">
-        <f>ROW()-2</f>
-        <v>69</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H63" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H71">
-      <sortCondition ref="G2:G63"/>
+  <autoFilter ref="B2:H67" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H67">
+      <sortCondition ref="H2:H67"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -3301,554 +3607,656 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15E6091-92DA-4D18-8680-DFABD8FC4531}">
-  <dimension ref="B2:P18"/>
+  <dimension ref="B2:N18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="21.08203125" customWidth="1"/>
-    <col min="6" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="19.08203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="17.25" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.08203125" customWidth="1"/>
+    <col min="5" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="2" spans="2:14" ht="29" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7">
+        <v>8</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7">
+        <v>9</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7">
+        <v>10</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7">
+        <v>11</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D16" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7">
+        <v>13</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="D17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7">
+        <v>14</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="K17" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="D18" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7">
+        <v>15</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="K18" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="1">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="N18" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="1">
-        <v>8</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J12" s="1">
-        <v>9</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J13" s="1">
-        <v>10</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="1">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J15" s="1">
-        <v>12</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J16" s="1">
-        <v>13</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J17" s="1">
-        <v>14</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J18" s="1">
-        <v>15</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/ドキュメント/内部設計/ファイル構成一覧表_E2_くまおに.xlsx
+++ b/ドキュメント/内部設計/ファイル構成一覧表_E2_くまおに.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\ドキュメント\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4F0E9-4F10-4E8B-B9DE-72CB108EF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D4CEA8-287F-4CCB-B99B-1F3D7720EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -487,9 +487,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LoginServlet.java</t>
-  </si>
-  <si>
     <t>login.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -569,22 +566,6 @@
   </si>
   <si>
     <t>QuizServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ward.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ward.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ward.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WardServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -905,10 +886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>work_listServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ガチャID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1592,6 +1569,30 @@
     <rPh sb="0" eb="1">
       <t>ナミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Work_listServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>word.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>word.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>word.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WordServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1714,7 +1715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2033,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2076,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -2085,13 +2086,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2100,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -2109,13 +2110,13 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2124,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -2133,13 +2134,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2148,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -2157,13 +2158,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2171,21 +2172,23 @@
         <f>ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2193,21 +2196,23 @@
         <f>ROW()-2</f>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2215,21 +2220,23 @@
         <f>ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2237,21 +2244,23 @@
         <f>ROW()-2</f>
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2260,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -2269,13 +2278,13 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2284,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -2293,13 +2302,13 @@
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2308,7 +2317,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -2317,13 +2326,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2332,22 +2341,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2365,13 +2374,13 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2383,19 +2392,19 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2407,19 +2416,19 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2431,19 +2440,19 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2451,21 +2460,23 @@
         <f>ROW()-2</f>
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2473,21 +2484,23 @@
         <f>ROW()-2</f>
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2495,21 +2508,23 @@
         <f>ROW()-2</f>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2517,21 +2532,23 @@
         <f>ROW()-2</f>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2540,7 +2557,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -2549,13 +2566,13 @@
         <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2564,7 +2581,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -2573,13 +2590,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2588,7 +2605,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
@@ -2597,13 +2614,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2612,7 +2629,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -2621,13 +2638,13 @@
         <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2635,21 +2652,23 @@
         <f>ROW()-2</f>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2657,21 +2676,23 @@
         <f>ROW()-2</f>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2680,22 +2701,22 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2704,22 +2725,22 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2731,19 +2752,19 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2755,19 +2776,19 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2776,22 +2797,22 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2800,22 +2821,22 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2827,19 +2848,19 @@
         <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2851,19 +2872,19 @@
         <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2875,19 +2896,19 @@
         <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2896,22 +2917,22 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2920,22 +2941,22 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2944,22 +2965,22 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2967,21 +2988,23 @@
         <f>ROW()-2</f>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2989,21 +3012,23 @@
         <f>ROW()-2</f>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3012,7 +3037,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
@@ -3021,13 +3046,13 @@
         <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3036,7 +3061,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
@@ -3045,13 +3070,13 @@
         <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3060,7 +3085,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
@@ -3069,13 +3094,13 @@
         <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3084,7 +3109,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
@@ -3093,13 +3118,13 @@
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3108,7 +3133,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
@@ -3117,13 +3142,13 @@
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3132,7 +3157,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>8</v>
@@ -3141,13 +3166,13 @@
         <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3156,22 +3181,22 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3179,23 +3204,21 @@
         <f>ROW()-2</f>
         <v>48</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3203,23 +3226,21 @@
         <f>ROW()-2</f>
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3227,23 +3248,21 @@
         <f>ROW()-2</f>
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3251,23 +3270,21 @@
         <f>ROW()-2</f>
         <v>51</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3277,19 +3294,19 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3299,19 +3316,19 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3321,19 +3338,19 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3343,19 +3360,19 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3365,19 +3382,19 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3387,19 +3404,19 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3407,23 +3424,21 @@
         <f>ROW()-2</f>
         <v>58</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3431,23 +3446,21 @@
         <f>ROW()-2</f>
         <v>59</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3455,23 +3468,21 @@
         <f>ROW()-2</f>
         <v>60</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3479,23 +3490,21 @@
         <f>ROW()-2</f>
         <v>61</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3503,23 +3512,21 @@
         <f>ROW()-2</f>
         <v>62</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3527,23 +3534,21 @@
         <f>ROW()-2</f>
         <v>63</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3551,23 +3556,21 @@
         <f>ROW()-2</f>
         <v>64</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3575,29 +3578,27 @@
         <f>ROW()-2</f>
         <v>65</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:H67" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H67">
-      <sortCondition ref="H2:H67"/>
+      <sortCondition ref="C2:C67"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -3629,10 +3630,10 @@
   <sheetData>
     <row r="2" spans="2:14" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3640,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
@@ -3659,16 +3660,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>5</v>
@@ -3679,38 +3680,38 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="7">
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3718,38 +3719,38 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7">
         <v>2</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3757,38 +3758,38 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="7">
         <v>3</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3796,38 +3797,38 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="7">
         <v>4</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3835,38 +3836,38 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="7">
         <v>5</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3874,38 +3875,38 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="7">
         <v>6</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3913,38 +3914,38 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="7">
         <v>7</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3952,38 +3953,38 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7">
         <v>8</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3991,38 +3992,38 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7">
         <v>9</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4030,38 +4031,38 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="7">
         <v>10</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4069,38 +4070,38 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="7">
         <v>11</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4108,38 +4109,38 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="7">
         <v>12</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="N15" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4147,38 +4148,38 @@
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7">
         <v>13</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4186,38 +4187,38 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="7">
         <v>14</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4225,38 +4226,38 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="7">
         <v>15</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/ドキュメント/内部設計/ファイル構成一覧表_E2_くまおに.xlsx
+++ b/ドキュメント/内部設計/ファイル構成一覧表_E2_くまおに.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\ドキュメント\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4F0E9-4F10-4E8B-B9DE-72CB108EF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F4857-616B-4063-BC6F-42F05E68ED08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="341">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -632,10 +632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Communityervlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1304,98 +1300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>./img/mk01.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>./img/mk02.png</t>
-  </si>
-  <si>
-    <t>./img/mk03.png</t>
-  </si>
-  <si>
-    <t>./img/mk04.png</t>
-  </si>
-  <si>
-    <t>./img/mk05.png</t>
-  </si>
-  <si>
-    <t>./img/mk06.png</t>
-  </si>
-  <si>
-    <t>./img/mk07.png</t>
-  </si>
-  <si>
-    <t>./img/mk08.png</t>
-  </si>
-  <si>
-    <t>./img/mk09.png</t>
-  </si>
-  <si>
-    <t>./img/mk10.png</t>
-  </si>
-  <si>
-    <t>./img/mk11.png</t>
-  </si>
-  <si>
-    <t>./img/mk12.png</t>
-  </si>
-  <si>
-    <t>./img/mk13.png</t>
-  </si>
-  <si>
-    <t>./img/mk14.png</t>
-  </si>
-  <si>
-    <t>./img/mk15.png</t>
-  </si>
-  <si>
-    <t>./img/bg01.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>./img/bg02.png</t>
-  </si>
-  <si>
-    <t>./img/bg03.png</t>
-  </si>
-  <si>
-    <t>./img/bg04.png</t>
-  </si>
-  <si>
-    <t>./img/bg05.png</t>
-  </si>
-  <si>
-    <t>./img/bg06.png</t>
-  </si>
-  <si>
-    <t>./img/bg07.png</t>
-  </si>
-  <si>
-    <t>./img/bg08.png</t>
-  </si>
-  <si>
-    <t>./img/bg09.png</t>
-  </si>
-  <si>
-    <t>./img/bg10.png</t>
-  </si>
-  <si>
-    <t>./img/bg11.png</t>
-  </si>
-  <si>
-    <t>./img/bg12.png</t>
-  </si>
-  <si>
-    <t>./img/bg13.png</t>
-  </si>
-  <si>
-    <t>./img/bg14.png</t>
-  </si>
-  <si>
-    <t>./img/bg15.png</t>
-  </si>
-  <si>
     <t>背景</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
@@ -1592,6 +1496,498 @@
     <rPh sb="0" eb="1">
       <t>ナミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back_groundDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景変更用のDAO</t>
+    <rPh sb="0" eb="5">
+      <t>ハイケイヘンコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login_timeDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回ログイン時用のDAO</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PointDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント処理用のDAO</t>
+    <rPh sb="4" eb="7">
+      <t>ショリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GachaTicketDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャチケット用のDAO</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Communityjoin.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login_time.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Qpoint.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ticket_get.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mypage.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GachaTicket.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TodayDate.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ情報関連のデータ操作モデル</t>
+    <rPh sb="6" eb="10">
+      <t>ジョウホウカンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイズポイント関連のデータ操作モデル</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャチケット用のDAO情報関連のデータ操作モデル</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ジョウホウカンレン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ情報関連のデータ操作モデル</t>
+    <rPh sb="5" eb="9">
+      <t>ジョウホウカンレン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャチケット情報関連のデータ操作モデル</t>
+    <rPh sb="7" eb="11">
+      <t>ジョウホウカンレン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時間取得のモジュール</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン情報関連のデータ操作モデル</t>
+    <rPh sb="4" eb="8">
+      <t>ジョウホウカンレン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内田さん</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上さん</t>
+    <rPh sb="0" eb="2">
+      <t>ムラカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AdminServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back_groundServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommontGoodServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommontSearchServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommontdeleteServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommontInsertServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DownsortServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LatestSrvret.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_listSearchServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpsortServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarkServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommunityServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommonteditServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者画面用</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ背景変更用</t>
+    <rPh sb="5" eb="9">
+      <t>ハイケイヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティいいね機能用</t>
+    <rPh sb="9" eb="12">
+      <t>キノウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ検索機能用</t>
+    <rPh sb="6" eb="11">
+      <t>ケンサクキノウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ削除機能用</t>
+    <rPh sb="6" eb="10">
+      <t>サクジョキノウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ登録機能用</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キノウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用語ソート用</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用語検索用</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧検索用</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケンサクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用語検ソート用</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページマーク変更用</t>
+    <rPh sb="8" eb="11">
+      <t>ヘンコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ編集用</t>
+    <rPh sb="6" eb="9">
+      <t>ヘンシュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quizpopup.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイズポップアップ画面css</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quizpopup.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timehello.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./img/Mk01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./img/Mk02.png</t>
+  </si>
+  <si>
+    <t>./img/Mk03.png</t>
+  </si>
+  <si>
+    <t>./img/Mk04.png</t>
+  </si>
+  <si>
+    <t>./img/Mk05.png</t>
+  </si>
+  <si>
+    <t>./img/Mk06.png</t>
+  </si>
+  <si>
+    <t>./img/Mk07.png</t>
+  </si>
+  <si>
+    <t>./img/Mk08.png</t>
+  </si>
+  <si>
+    <t>./img/Mk09.png</t>
+  </si>
+  <si>
+    <t>./img/Mk10.png</t>
+  </si>
+  <si>
+    <t>./img/Mk11.png</t>
+  </si>
+  <si>
+    <t>./img/Mk12.png</t>
+  </si>
+  <si>
+    <t>./img/Mk13.png</t>
+  </si>
+  <si>
+    <t>./img/Mk14.png</t>
+  </si>
+  <si>
+    <t>./img/Mk15.png</t>
+  </si>
+  <si>
+    <t>./img/Bg01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./img/Bg02.png</t>
+  </si>
+  <si>
+    <t>./img/Bg03.png</t>
+  </si>
+  <si>
+    <t>./img/Bg04.png</t>
+  </si>
+  <si>
+    <t>./img/Bg05.png</t>
+  </si>
+  <si>
+    <t>./img/Bg06.png</t>
+  </si>
+  <si>
+    <t>./img/Bg07.png</t>
+  </si>
+  <si>
+    <t>./img/Bg08.png</t>
+  </si>
+  <si>
+    <t>./img/Bg09.png</t>
+  </si>
+  <si>
+    <t>./img/Bg10.png</t>
+  </si>
+  <si>
+    <t>./img/Bg11.png</t>
+  </si>
+  <si>
+    <t>./img/Bg12.png</t>
+  </si>
+  <si>
+    <t>./img/Bg13.png</t>
+  </si>
+  <si>
+    <t>./img/Bg14.png</t>
+  </si>
+  <si>
+    <t>./img/Bg15.png</t>
+  </si>
+  <si>
+    <t>admin.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gacharesult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>word_search.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_listSearch.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1714,7 +2110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2031,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H67"/>
+  <dimension ref="B2:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2042,7 +2438,7 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="58.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
@@ -2075,23 +2471,21 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2099,23 +2493,21 @@
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2123,23 +2515,21 @@
         <f>ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2147,23 +2537,21 @@
         <f>ROW()-2</f>
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2173,19 +2561,19 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2195,19 +2583,19 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2217,19 +2605,19 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2239,16 +2627,16 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>212</v>
@@ -2259,23 +2647,21 @@
         <f>ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2283,23 +2669,21 @@
         <f>ROW()-2</f>
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2307,23 +2691,21 @@
         <f>ROW()-2</f>
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2331,23 +2713,21 @@
         <f>ROW()-2</f>
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2355,23 +2735,21 @@
         <f>ROW()-2</f>
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2379,23 +2757,21 @@
         <f>ROW()-2</f>
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2403,23 +2779,21 @@
         <f>ROW()-2</f>
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2427,23 +2801,21 @@
         <f>ROW()-2</f>
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2453,19 +2825,19 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2475,19 +2847,19 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2497,19 +2869,19 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2519,19 +2891,19 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2539,23 +2911,21 @@
         <f>ROW()-2</f>
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2563,23 +2933,21 @@
         <f>ROW()-2</f>
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2587,23 +2955,21 @@
         <f>ROW()-2</f>
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2611,23 +2977,21 @@
         <f>ROW()-2</f>
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2637,19 +3001,19 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2659,19 +3023,19 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2679,23 +3043,21 @@
         <f>ROW()-2</f>
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2703,23 +3065,21 @@
         <f>ROW()-2</f>
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2727,24 +3087,20 @@
         <f>ROW()-2</f>
         <v>29</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -2752,22 +3108,22 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2776,7 +3132,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
@@ -2785,13 +3141,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2800,7 +3156,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
@@ -2809,13 +3165,13 @@
         <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2824,22 +3180,22 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2848,22 +3204,22 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2872,22 +3228,22 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2896,22 +3252,22 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2920,22 +3276,22 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2944,22 +3300,22 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2967,21 +3323,23 @@
         <f>ROW()-2</f>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2991,19 +3349,19 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3011,23 +3369,21 @@
         <f>ROW()-2</f>
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3035,23 +3391,21 @@
         <f>ROW()-2</f>
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3059,23 +3413,21 @@
         <f>ROW()-2</f>
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3083,23 +3435,21 @@
         <f>ROW()-2</f>
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3108,22 +3458,22 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3132,22 +3482,22 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3155,120 +3505,98 @@
         <f>ROW()-2</f>
         <v>47</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
         <f>ROW()-2</f>
         <v>48</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
         <f>ROW()-2</f>
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
         <f>ROW()-2</f>
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
         <f>ROW()-2</f>
         <v>51</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
@@ -3277,20 +3605,18 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
@@ -3299,20 +3625,18 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
@@ -3321,20 +3645,18 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
@@ -3343,41 +3665,41 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
         <f>ROW()-2</f>
         <v>56</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D58" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3385,21 +3707,23 @@
         <f>ROW()-2</f>
         <v>57</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D59" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3408,19 +3732,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>197</v>
@@ -3432,7 +3756,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -3441,13 +3765,13 @@
         <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3456,22 +3780,22 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3480,22 +3804,22 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3504,22 +3828,22 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3528,7 +3852,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
@@ -3537,13 +3861,13 @@
         <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3552,22 +3876,22 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3576,28 +3900,758 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="1">
+        <f>ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="1">
+        <f>ROW()-2</f>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1">
+        <f>ROW()-2</f>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="1">
+        <f>ROW()-2</f>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="1">
+        <f>ROW()-2</f>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="1">
+        <f>ROW()-2</f>
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="1">
+        <f>ROW()-2</f>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="1">
+        <f>ROW()-2</f>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="1">
+        <f>ROW()-2</f>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="1">
+        <f>ROW()-2</f>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="1">
+        <f>ROW()-2</f>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="1">
+        <f>ROW()-2</f>
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="1">
+        <f>ROW()-2</f>
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="1">
+        <f>ROW()-2</f>
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="1">
+        <f>ROW()-2</f>
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="1">
+        <f>ROW()-2</f>
+        <v>81</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="1">
+        <f>ROW()-2</f>
+        <v>82</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="1">
+        <f>ROW()-2</f>
+        <v>83</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="1">
+        <f>ROW()-2</f>
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="1">
+        <f>ROW()-2</f>
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="1">
+        <f>ROW()-2</f>
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="1">
+        <f>ROW()-2</f>
+        <v>87</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="1">
+        <f>ROW()-2</f>
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="1">
+        <f>ROW()-2</f>
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="1">
+        <f>ROW()-2</f>
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="1">
+        <f>ROW()-2</f>
+        <v>91</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="1">
+        <f>ROW()-2</f>
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="1">
+        <f>ROW()-2</f>
+        <v>93</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="H95" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="1">
+        <f>ROW()-2</f>
+        <v>94</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="1">
+        <f>ROW()-2</f>
+        <v>95</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="1">
+        <f>ROW()-2</f>
+        <v>96</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="1">
+        <f>ROW()-2</f>
+        <v>97</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:H67" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H67">
-      <sortCondition ref="H2:H67"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H99">
+      <sortCondition ref="E2:E67"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -3629,10 +4683,10 @@
   <sheetData>
     <row r="2" spans="2:14" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3640,16 +4694,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
@@ -3659,16 +4713,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>5</v>
@@ -3679,38 +4733,38 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="7">
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3718,38 +4772,38 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7">
         <v>2</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3757,38 +4811,38 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="7">
         <v>3</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3796,38 +4850,38 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="7">
         <v>4</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3835,38 +4889,38 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="7">
         <v>5</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3874,38 +4928,38 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="7">
         <v>6</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3913,38 +4967,38 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="7">
         <v>7</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3952,38 +5006,38 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7">
         <v>8</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3991,38 +5045,38 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7">
         <v>9</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4030,38 +5084,38 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="7">
         <v>10</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4069,38 +5123,38 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="7">
         <v>11</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4108,38 +5162,38 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="7">
         <v>12</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4147,38 +5201,38 @@
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7">
         <v>13</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4186,38 +5240,38 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="7">
         <v>14</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -4225,38 +5279,38 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="7">
         <v>15</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>245</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4266,6 +5320,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4436,36 +5505,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4488,9 +5531,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>